--- a/Modelos/Tentativa 2/Métricas.xlsx
+++ b/Modelos/Tentativa 2/Métricas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Modelos\Modelo 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Modelos\Tentativa 2\Novo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07623C0C-8F83-4721-9493-294AD78C82FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967CC2F4-059A-45E5-9675-A1E1ABFF8207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,16 +446,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.96136012364760437</v>
+        <v>0.97836166924265844</v>
       </c>
       <c r="C2" s="2">
-        <v>0.3</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D2" s="2">
-        <v>0.69230769230769229</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>0.41860465116279072</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -497,7 +497,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>0.99845440494590421</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -517,13 +517,13 @@
         <v>0.9969088098918083</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -548,16 +548,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.97836166924265844</v>
+        <v>0.98918083462132922</v>
       </c>
       <c r="C8" s="2">
-        <v>0.51724137931034486</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>0.68181818181818188</v>
+        <v>0.81081081081081086</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -650,16 +650,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.98763523956723343</v>
+        <v>0.98608964451313752</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -667,7 +667,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.99536321483771251</v>
+        <v>0.99845440494590421</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -684,16 +684,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.99845440494590421</v>
+        <v>0.99227202472952092</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -735,7 +735,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.9969088098918083</v>
+        <v>0.99845440494590421</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.90726429675425035</v>
+        <v>0.87944358578052551</v>
       </c>
       <c r="C22" s="2">
-        <v>0.66346153846153844</v>
+        <v>0.62903225806451613</v>
       </c>
       <c r="D22" s="2">
-        <v>0.73404255319148937</v>
+        <v>0.41489361702127658</v>
       </c>
       <c r="E22" s="2">
-        <v>0.69696969696969691</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -803,16 +803,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.97990726429675423</v>
+        <v>0.97527047913446674</v>
       </c>
       <c r="C23" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2">
-        <v>7.6923076923076927E-2</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>0.13333333333333339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -820,7 +820,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9969088098918083</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>0.98763523956723343</v>
+        <v>0.96445131375579596</v>
       </c>
       <c r="C27" s="2">
-        <v>0</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="D27" s="2">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <v>0.25806451612903231</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -888,16 +888,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>0.89489953632148378</v>
+        <v>0.97527047913446674</v>
       </c>
       <c r="C28" s="2">
-        <v>7.6923076923076927E-2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2">
-        <v>0.38461538461538458</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>0.12820512820512819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -905,16 +905,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>0.9397217928902627</v>
+        <v>0.8238021638330757</v>
       </c>
       <c r="C29" s="2">
-        <v>0.27777777777777779</v>
+        <v>0.17322834645669291</v>
       </c>
       <c r="D29" s="2">
-        <v>0.16129032258064521</v>
+        <v>0.70967741935483875</v>
       </c>
       <c r="E29" s="2">
-        <v>0.2040816326530612</v>
+        <v>0.27848101265822778</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -973,7 +973,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>0.9969088098918083</v>
+        <v>0.99536321483771251</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>0.97990726429675423</v>
+        <v>0.98763523956723343</v>
       </c>
       <c r="C34" s="2">
-        <v>0.14285714285714279</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1007,16 +1007,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>0.8253477588871716</v>
+        <v>0.81143740340030912</v>
       </c>
       <c r="C35" s="2">
-        <v>0.86206896551724133</v>
+        <v>0.83846153846153848</v>
       </c>
       <c r="D35" s="2">
-        <v>0.84196891191709844</v>
+        <v>0.84715025906735753</v>
       </c>
       <c r="E35" s="2">
-        <v>0.85190039318479682</v>
+        <v>0.84278350515463918</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1041,13 +1041,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>0.99381761978361671</v>
+        <v>0.9969088098918083</v>
       </c>
       <c r="C37" s="2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E37" s="2">
         <v>0.5</v>
@@ -1143,7 +1143,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>0.99536321483771251</v>
+        <v>1</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
